--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1020.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1020.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163819823411903</v>
+        <v>1.419687032699585</v>
       </c>
       <c r="B1">
-        <v>3.505798031300438</v>
+        <v>1.898656964302063</v>
       </c>
       <c r="C1">
-        <v>3.514633535716584</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.141707770893554</v>
+        <v>1.922520875930786</v>
       </c>
       <c r="E1">
-        <v>1.053741115047858</v>
+        <v>0.7132148146629333</v>
       </c>
     </row>
   </sheetData>
